--- a/todo.xlsx
+++ b/todo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\tamagoshop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wamp64\www\tamagoshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{2A78FA51-430E-48C8-8ED4-75DA8E814F30}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" xr2:uid="{2A78FA51-430E-48C8-8ED4-75DA8E814F30}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -549,17 +549,17 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="1"/>
-    <col min="4" max="4" width="34.88671875" customWidth="1"/>
-    <col min="7" max="7" width="42.33203125" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" customWidth="1"/>
+    <col min="7" max="7" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -573,7 +573,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -587,7 +587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -601,7 +601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -615,7 +615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -625,14 +625,14 @@
       <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="G5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -643,7 +643,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -654,12 +654,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -667,12 +667,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -681,12 +681,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -698,12 +698,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -715,20 +715,20 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D14" t="s">
         <v>23</v>
@@ -737,7 +737,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -745,7 +745,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -753,7 +753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
   <si>
     <t>GESTIONNAIRE DE DONNEES</t>
   </si>
@@ -62,9 +62,6 @@
     <t>suppression</t>
   </si>
   <si>
-    <t>TODO</t>
-  </si>
-  <si>
     <t>panier remplissable quand unlog</t>
   </si>
   <si>
@@ -120,12 +117,6 @@
   </si>
   <si>
     <t>Securiser les post et get</t>
-  </si>
-  <si>
-    <t>MOI OU VOUS</t>
-  </si>
-  <si>
-    <t>design de manage_products</t>
   </si>
 </sst>
 </file>
@@ -141,7 +132,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,12 +142,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -173,10 +158,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,7 +533,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -623,13 +607,13 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -640,7 +624,7 @@
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -651,73 +635,67 @@
         <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="G11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="G12" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
@@ -725,13 +703,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>7</v>
@@ -739,15 +717,15 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
         <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
@@ -755,10 +733,10 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
